--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{484D7F4F-3E9E-488B-A4C1-BF7DB0A18EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6509F8-DF67-4E40-84B0-4A75B0A8CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{960C6800-B151-4E03-939F-99F3CFE32FAE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8778A4AB-4FDC-4B10-B6F6-8FD91BA0FCBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,715 +140,709 @@
     <t>4,45%</t>
   </si>
   <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
     <t>99,05%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -857,31 +851,37 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,87%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,16%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6CCA21-C9BB-4A38-BB33-CD31FBDB04B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561212BE-F6E9-47FA-AFF0-4B407974B788}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2044,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7301B-CA30-4A38-B05B-B522BC1D78A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EAE610-98D3-414B-B858-F6E51EF92695}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2174,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -2183,13 +2183,13 @@
         <v>70692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -2198,13 +2198,13 @@
         <v>123150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2219,13 @@
         <v>917052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1175</v>
@@ -2234,13 +2234,13 @@
         <v>1261734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>2027</v>
@@ -2249,13 +2249,13 @@
         <v>2178786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2323,13 @@
         <v>104852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -2338,13 +2338,13 @@
         <v>124578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -2353,13 +2353,13 @@
         <v>229430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2374,13 @@
         <v>1851579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1511</v>
@@ -2389,13 +2389,13 @@
         <v>1625075</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
         <v>3261</v>
@@ -2654,7 +2654,7 @@
         <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>361</v>
@@ -2663,13 +2663,13 @@
         <v>382049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2684,13 @@
         <v>3244773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>3076</v>
@@ -2699,28 +2699,28 @@
         <v>3321011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>6111</v>
       </c>
       <c r="N14" s="7">
-        <v>6565784</v>
+        <v>6565785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2762,7 @@
         <v>6472</v>
       </c>
       <c r="N15" s="7">
-        <v>6947833</v>
+        <v>6947834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF01F742-3C7E-4D4E-8158-0B1CC4A07CB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E766FB-025C-42E2-A23D-30C5912E1207}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2919,13 +2919,13 @@
         <v>37000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -2934,13 +2934,13 @@
         <v>51964</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -2949,7 +2949,7 @@
         <v>88964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>165</v>
@@ -2988,10 +2988,10 @@
         <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1558</v>
@@ -3000,13 +3000,13 @@
         <v>1649210</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3074,13 @@
         <v>89020</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3089,13 +3089,13 @@
         <v>80532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -3104,13 +3104,13 @@
         <v>169552</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3125,13 @@
         <v>1978407</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1820</v>
@@ -3140,13 +3140,13 @@
         <v>1897648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3687</v>
@@ -3155,13 +3155,13 @@
         <v>3876054</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3229,13 @@
         <v>19104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3244,13 +3244,13 @@
         <v>27818</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3259,13 +3259,13 @@
         <v>46922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3280,13 @@
         <v>522884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3295,13 +3295,13 @@
         <v>518455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>976</v>
@@ -3310,13 +3310,13 @@
         <v>1041339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3384,13 @@
         <v>145123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3399,13 +3399,13 @@
         <v>160315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
@@ -3414,13 +3414,13 @@
         <v>305438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3435,13 @@
         <v>3213149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>3154</v>
@@ -3450,13 +3450,13 @@
         <v>3353455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>6221</v>
@@ -3465,13 +3465,13 @@
         <v>6566604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB7A35-2484-460B-8C74-8A53DEDDE5AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C059E035-56C8-4169-A878-43961A985AE8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3670,13 +3670,13 @@
         <v>14211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3685,13 +3685,13 @@
         <v>18882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -3700,13 +3700,13 @@
         <v>33093</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3721,13 @@
         <v>524212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>1383</v>
@@ -3736,13 +3736,13 @@
         <v>803464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>2049</v>
@@ -3751,13 +3751,13 @@
         <v>1327677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3825,13 @@
         <v>50967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -3840,13 +3840,13 @@
         <v>63891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3855,13 +3855,13 @@
         <v>114859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3876,13 @@
         <v>2094075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>2807</v>
@@ -3891,13 +3891,13 @@
         <v>2169996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>4736</v>
@@ -3906,13 +3906,13 @@
         <v>4264070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3980,13 @@
         <v>12279</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3995,13 +3995,13 @@
         <v>12210</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4010,13 +4010,13 @@
         <v>24488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4031,13 @@
         <v>651994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
@@ -4046,13 +4046,13 @@
         <v>692602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>1632</v>
@@ -4061,13 +4061,13 @@
         <v>1344597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4135,13 @@
         <v>77457</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -4150,13 +4150,13 @@
         <v>94983</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -4165,13 +4165,13 @@
         <v>172440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,28 +4186,28 @@
         <v>3270281</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>5162</v>
       </c>
       <c r="I14" s="7">
-        <v>3666063</v>
+        <v>3666062</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>8417</v>
@@ -4216,13 +4216,13 @@
         <v>6936344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>5301</v>
       </c>
       <c r="I15" s="7">
-        <v>3761046</v>
+        <v>3761045</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6509F8-DF67-4E40-84B0-4A75B0A8CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5033AA09-7AF0-4752-BF06-BB616EB07A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8778A4AB-4FDC-4B10-B6F6-8FD91BA0FCBE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9498DB63-FDC4-44ED-9DFC-21C58F5E582F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="279">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -86,19 +86,19 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,19 +116,19 @@
     <t>94,18%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,601 +140,595 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>96,12%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
   </si>
   <si>
     <t>98,23%</t>
@@ -1293,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561212BE-F6E9-47FA-AFF0-4B407974B788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2B120-91D9-4FCB-977C-67379BF43B30}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1650,7 +1644,7 @@
         <v>3027</v>
       </c>
       <c r="N8" s="7">
-        <v>3093595</v>
+        <v>3093594</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1701,7 +1695,7 @@
         <v>3192</v>
       </c>
       <c r="N9" s="7">
-        <v>3269649</v>
+        <v>3269648</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1915,10 +1909,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1927,13 @@
         <v>3108815</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3100</v>
@@ -1948,13 +1942,13 @@
         <v>3169222</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6158</v>
@@ -1963,13 +1957,13 @@
         <v>6278038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,7 +2019,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EAE610-98D3-414B-B858-F6E51EF92695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB4DD72-8344-4CED-967A-C04A6415966B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2061,7 +2055,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2168,13 +2162,13 @@
         <v>52458</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -2183,13 +2177,13 @@
         <v>70692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -2198,13 +2192,13 @@
         <v>123150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2213,13 @@
         <v>917052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1175</v>
@@ -2234,13 +2228,13 @@
         <v>1261734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>2027</v>
@@ -2249,13 +2243,13 @@
         <v>2178786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2317,13 @@
         <v>104852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -2338,13 +2332,13 @@
         <v>124578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -2353,13 +2347,13 @@
         <v>229430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2368,13 @@
         <v>1851579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1511</v>
@@ -2389,13 +2383,13 @@
         <v>1625075</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>3261</v>
@@ -2404,13 +2398,13 @@
         <v>3476654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2472,13 @@
         <v>5040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2493,13 +2487,13 @@
         <v>24429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2508,13 +2502,13 @@
         <v>29469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2523,13 @@
         <v>476141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>390</v>
@@ -2544,13 +2538,13 @@
         <v>434202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>823</v>
@@ -2559,13 +2553,13 @@
         <v>910343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2627,13 @@
         <v>162350</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -2648,13 +2642,13 @@
         <v>219699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>361</v>
@@ -2663,13 +2657,13 @@
         <v>382049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2678,13 @@
         <v>3244773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>3076</v>
@@ -2699,28 +2693,28 @@
         <v>3321011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>6111</v>
       </c>
       <c r="N14" s="7">
-        <v>6565785</v>
+        <v>6565784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2756,7 @@
         <v>6472</v>
       </c>
       <c r="N15" s="7">
-        <v>6947834</v>
+        <v>6947833</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2776,7 +2770,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E766FB-025C-42E2-A23D-30C5912E1207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D9A1E-E34E-45AE-B8D7-523142B8EB2D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2806,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2919,13 +2913,13 @@
         <v>37000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -2934,13 +2928,13 @@
         <v>51964</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -2949,13 +2943,13 @@
         <v>88964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2964,13 @@
         <v>711857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
         <v>837</v>
@@ -2985,13 +2979,13 @@
         <v>937353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>1558</v>
@@ -3000,13 +2994,13 @@
         <v>1649210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3068,13 @@
         <v>89020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3089,13 +3083,13 @@
         <v>80532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -3104,13 +3098,13 @@
         <v>169552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3119,13 @@
         <v>1978407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>1820</v>
@@ -3140,13 +3134,13 @@
         <v>1897648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>3687</v>
@@ -3155,13 +3149,13 @@
         <v>3876054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3223,13 @@
         <v>19104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3244,13 +3238,13 @@
         <v>27818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3259,13 +3253,13 @@
         <v>46922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3274,13 @@
         <v>522884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3295,13 +3289,13 @@
         <v>518455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>976</v>
@@ -3310,13 +3304,13 @@
         <v>1041339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3378,13 @@
         <v>145123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3399,13 +3393,13 @@
         <v>160315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
@@ -3414,13 +3408,13 @@
         <v>305438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3429,13 @@
         <v>3213149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>3154</v>
@@ -3450,13 +3444,13 @@
         <v>3353455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>6221</v>
@@ -3465,13 +3459,13 @@
         <v>6566604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3521,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C059E035-56C8-4169-A878-43961A985AE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA3ADE-C23E-4329-8B30-2F92A57560BF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,7 +3557,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3670,13 +3664,13 @@
         <v>14211</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3685,13 +3679,13 @@
         <v>18882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -3700,13 +3694,13 @@
         <v>33093</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3715,13 @@
         <v>524212</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>1383</v>
@@ -3736,13 +3730,13 @@
         <v>803464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>2049</v>
@@ -3751,13 +3745,13 @@
         <v>1327677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>50967</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -3840,10 +3834,10 @@
         <v>63891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>51</v>
@@ -3855,13 +3849,13 @@
         <v>114859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3870,13 @@
         <v>2094075</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>2807</v>
@@ -3891,13 +3885,13 @@
         <v>2169996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>4736</v>
@@ -3906,13 +3900,13 @@
         <v>4264070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3974,13 @@
         <v>12279</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3995,13 +3989,13 @@
         <v>12210</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4010,13 +4004,13 @@
         <v>24488</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4025,13 @@
         <v>651994</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
@@ -4046,13 +4040,13 @@
         <v>692602</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>1632</v>
@@ -4061,13 +4055,13 @@
         <v>1344597</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4129,13 @@
         <v>77457</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -4150,13 +4144,13 @@
         <v>94983</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -4165,13 +4159,13 @@
         <v>172440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4180,13 @@
         <v>3270281</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>5162</v>
@@ -4201,13 +4195,13 @@
         <v>3666062</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>8417</v>
@@ -4216,13 +4210,13 @@
         <v>6936344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4272,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5033AA09-7AF0-4752-BF06-BB616EB07A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3304027A-EDA2-433B-9EA9-BB6367B73F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9498DB63-FDC4-44ED-9DFC-21C58F5E582F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CB94925-EBC3-480E-BC14-57772A11D76E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>6,97%</t>
@@ -107,19 +107,19 @@
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>94,09%</t>
@@ -128,7 +128,7 @@
     <t>93,03%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,703 +140,715 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
     <t>1,85%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
     <t>99,05%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -845,37 +857,31 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>96,87%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>97,16%</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2B120-91D9-4FCB-977C-67379BF43B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE8076-936D-49DA-9E54-9986F95DD0AC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1650,7 @@
         <v>3027</v>
       </c>
       <c r="N8" s="7">
-        <v>3093594</v>
+        <v>3093595</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1695,7 +1701,7 @@
         <v>3192</v>
       </c>
       <c r="N9" s="7">
-        <v>3269648</v>
+        <v>3269649</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1909,10 +1915,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1933,13 @@
         <v>3108815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3100</v>
@@ -1942,13 +1948,13 @@
         <v>3169222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6158</v>
@@ -1957,13 +1963,13 @@
         <v>6278038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +2025,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB4DD72-8344-4CED-967A-C04A6415966B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E32E2-3FE8-4173-B1BE-7D89FE74F1D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2162,13 +2168,13 @@
         <v>52458</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -2177,13 +2183,13 @@
         <v>70692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -2192,13 +2198,13 @@
         <v>123150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2219,13 @@
         <v>917052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1175</v>
@@ -2228,13 +2234,13 @@
         <v>1261734</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>2027</v>
@@ -2243,13 +2249,13 @@
         <v>2178786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2323,13 @@
         <v>104852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -2332,13 +2338,13 @@
         <v>124578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -2347,13 +2353,13 @@
         <v>229430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2374,13 @@
         <v>1851579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1511</v>
@@ -2383,13 +2389,13 @@
         <v>1625075</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3261</v>
@@ -2398,13 +2404,13 @@
         <v>3476654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2478,13 @@
         <v>5040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2487,13 +2493,13 @@
         <v>24429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2502,13 +2508,13 @@
         <v>29469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2529,13 @@
         <v>476141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>390</v>
@@ -2538,13 +2544,13 @@
         <v>434202</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>823</v>
@@ -2553,13 +2559,13 @@
         <v>910343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2633,13 @@
         <v>162350</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -2642,13 +2648,13 @@
         <v>219699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>361</v>
@@ -2657,13 +2663,13 @@
         <v>382049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2684,13 @@
         <v>3244773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>3076</v>
@@ -2693,13 +2699,13 @@
         <v>3321011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6111</v>
@@ -2708,13 +2714,13 @@
         <v>6565784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D9A1E-E34E-45AE-B8D7-523142B8EB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A5192D-6990-4B3F-9C81-6F33F471679F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2806,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2913,13 +2919,13 @@
         <v>37000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -2928,13 +2934,13 @@
         <v>51964</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -2943,13 +2949,13 @@
         <v>88964</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2970,13 @@
         <v>711857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>837</v>
@@ -2979,13 +2985,13 @@
         <v>937353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1558</v>
@@ -2994,13 +3000,13 @@
         <v>1649210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3074,13 @@
         <v>89020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3083,13 +3089,13 @@
         <v>80532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -3098,13 +3104,13 @@
         <v>169552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3125,13 @@
         <v>1978407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1820</v>
@@ -3134,13 +3140,13 @@
         <v>1897648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3687</v>
@@ -3149,13 +3155,13 @@
         <v>3876054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3229,13 @@
         <v>19104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3238,13 +3244,13 @@
         <v>27818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3253,13 +3259,13 @@
         <v>46922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3280,13 @@
         <v>522884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3289,13 +3295,13 @@
         <v>518455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>976</v>
@@ -3304,13 +3310,13 @@
         <v>1041339</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3384,13 @@
         <v>145123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3393,13 +3399,13 @@
         <v>160315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
@@ -3408,13 +3414,13 @@
         <v>305438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3435,13 @@
         <v>3213149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>3154</v>
@@ -3444,13 +3450,13 @@
         <v>3353455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6221</v>
@@ -3459,13 +3465,13 @@
         <v>6566604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3527,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA3ADE-C23E-4329-8B30-2F92A57560BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C1CC1D-E52D-404C-83B1-466F285EB090}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3557,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3664,13 +3670,13 @@
         <v>14211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3679,13 +3685,13 @@
         <v>18882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -3694,13 +3700,13 @@
         <v>33093</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3721,13 @@
         <v>524212</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>1383</v>
@@ -3730,13 +3736,13 @@
         <v>803464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>2049</v>
@@ -3745,13 +3751,13 @@
         <v>1327677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3825,13 @@
         <v>50967</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -3834,13 +3840,13 @@
         <v>63891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -3849,13 +3855,13 @@
         <v>114859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3876,13 @@
         <v>2094075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>2807</v>
@@ -3885,13 +3891,13 @@
         <v>2169996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>4736</v>
@@ -3900,13 +3906,13 @@
         <v>4264070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3980,13 @@
         <v>12279</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3989,13 +3995,13 @@
         <v>12210</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -4004,13 +4010,13 @@
         <v>24488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4031,13 @@
         <v>651994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
@@ -4040,13 +4046,13 @@
         <v>692602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1632</v>
@@ -4055,13 +4061,13 @@
         <v>1344597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4135,13 @@
         <v>77457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -4144,13 +4150,13 @@
         <v>94983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -4159,13 +4165,13 @@
         <v>172440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,28 +4186,28 @@
         <v>3270281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>5162</v>
       </c>
       <c r="I14" s="7">
-        <v>3666062</v>
+        <v>3666063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>8417</v>
@@ -4210,13 +4216,13 @@
         <v>6936344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,7 +4249,7 @@
         <v>5301</v>
       </c>
       <c r="I15" s="7">
-        <v>3761045</v>
+        <v>3761046</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4272,7 +4278,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3304027A-EDA2-433B-9EA9-BB6367B73F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E007E3-0BF0-4321-A292-85442151E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CB94925-EBC3-480E-BC14-57772A11D76E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02D0736D-65EB-4534-A637-42B09FD3F2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -710,178 +710,190 @@
     <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE8076-936D-49DA-9E54-9986F95DD0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29713C74-9653-4CFE-8AA5-BBF7DCA783E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,7 +1647,7 @@
         <v>1454</v>
       </c>
       <c r="I8" s="7">
-        <v>1481537</v>
+        <v>1481536</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1686,7 +1698,7 @@
         <v>1549</v>
       </c>
       <c r="I9" s="7">
-        <v>1582526</v>
+        <v>1582525</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E32E2-3FE8-4173-B1BE-7D89FE74F1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23A03A6-A4C2-47FC-875F-B55E91BFF51C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2556,7 +2568,7 @@
         <v>823</v>
       </c>
       <c r="N11" s="7">
-        <v>910343</v>
+        <v>910344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2607,7 +2619,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2795,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A5192D-6990-4B3F-9C81-6F33F471679F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ECAE61-A0A4-4E9A-A777-94A46018412C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3546,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C1CC1D-E52D-404C-83B1-466F285EB090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D238F-8BD7-4B2E-B2F3-14BCD7E80391}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>14211</v>
+        <v>13666</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>223</v>
@@ -3676,37 +3688,37 @@
         <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>18882</v>
+        <v>17691</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>33093</v>
+        <v>31357</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,46 +3730,46 @@
         <v>666</v>
       </c>
       <c r="D5" s="7">
-        <v>524212</v>
+        <v>498234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1383</v>
       </c>
       <c r="I5" s="7">
-        <v>803464</v>
+        <v>726144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>2049</v>
       </c>
       <c r="N5" s="7">
-        <v>1327677</v>
+        <v>1224378</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +3781,7 @@
         <v>686</v>
       </c>
       <c r="D6" s="7">
-        <v>538423</v>
+        <v>511900</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3784,7 +3796,7 @@
         <v>1411</v>
       </c>
       <c r="I6" s="7">
-        <v>822346</v>
+        <v>743835</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3799,7 +3811,7 @@
         <v>2097</v>
       </c>
       <c r="N6" s="7">
-        <v>1360770</v>
+        <v>1255735</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3822,46 +3834,46 @@
         <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>50967</v>
+        <v>50979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>63891</v>
+        <v>61405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
       </c>
       <c r="N7" s="7">
-        <v>114859</v>
+        <v>112384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,46 +3885,46 @@
         <v>1929</v>
       </c>
       <c r="D8" s="7">
-        <v>2094075</v>
+        <v>2223125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>2807</v>
       </c>
       <c r="I8" s="7">
-        <v>2169996</v>
+        <v>2162354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>4736</v>
       </c>
       <c r="N8" s="7">
-        <v>4264070</v>
+        <v>4385480</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3936,7 @@
         <v>1978</v>
       </c>
       <c r="D9" s="7">
-        <v>2145042</v>
+        <v>2274104</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3939,7 +3951,7 @@
         <v>2899</v>
       </c>
       <c r="I9" s="7">
-        <v>2233887</v>
+        <v>2223759</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3954,7 +3966,7 @@
         <v>4877</v>
       </c>
       <c r="N9" s="7">
-        <v>4378929</v>
+        <v>4497864</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3977,46 +3989,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>12279</v>
+        <v>11887</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>12210</v>
+        <v>11890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>24488</v>
+        <v>23777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,46 +4040,46 @@
         <v>660</v>
       </c>
       <c r="D11" s="7">
-        <v>651994</v>
+        <v>626841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>972</v>
       </c>
       <c r="I11" s="7">
-        <v>692602</v>
+        <v>640271</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1632</v>
       </c>
       <c r="N11" s="7">
-        <v>1344597</v>
+        <v>1267112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4091,7 @@
         <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>664273</v>
+        <v>638728</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4094,7 +4106,7 @@
         <v>991</v>
       </c>
       <c r="I12" s="7">
-        <v>704812</v>
+        <v>652161</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4109,7 +4121,7 @@
         <v>1664</v>
       </c>
       <c r="N12" s="7">
-        <v>1369085</v>
+        <v>1290889</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4132,46 +4144,46 @@
         <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>77457</v>
+        <v>76532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
       </c>
       <c r="I13" s="7">
-        <v>94983</v>
+        <v>90986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
       </c>
       <c r="N13" s="7">
-        <v>172440</v>
+        <v>167518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,46 +4195,46 @@
         <v>3255</v>
       </c>
       <c r="D14" s="7">
-        <v>3270281</v>
+        <v>3348200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>5162</v>
       </c>
       <c r="I14" s="7">
-        <v>3666063</v>
+        <v>3528770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>8417</v>
       </c>
       <c r="N14" s="7">
-        <v>6936344</v>
+        <v>6876970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4246,7 @@
         <v>3337</v>
       </c>
       <c r="D15" s="7">
-        <v>3347738</v>
+        <v>3424732</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4249,7 +4261,7 @@
         <v>5301</v>
       </c>
       <c r="I15" s="7">
-        <v>3761046</v>
+        <v>3619756</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4264,7 +4276,7 @@
         <v>8638</v>
       </c>
       <c r="N15" s="7">
-        <v>7108784</v>
+        <v>7044488</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
